--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">Собственник</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Дата</t>
   </si>
   <si>
+    <t xml:space="preserve">ИТОГО</t>
+  </si>
+  <si>
     <t xml:space="preserve">Агеев Владимир Валентинович</t>
   </si>
   <si>
@@ -70,7 +73,16 @@
     <t xml:space="preserve">Мария Алексеевна Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">ИТОГО</t>
+    <t xml:space="preserve">18.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ильдар У</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кругловы</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,10 +500,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <f aca="false">SUM(C2:C50)</f>
+        <v>32000</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>56</v>
@@ -500,7 +519,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,12 +531,12 @@
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>11</v>
@@ -526,12 +545,12 @@
         <v>2000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>84</v>
@@ -540,12 +559,12 @@
         <v>2000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>97</v>
@@ -554,12 +573,12 @@
         <v>2000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>98</v>
@@ -568,12 +587,12 @@
         <v>2000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>96</v>
@@ -582,12 +601,12 @@
         <v>2000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>89</v>
@@ -596,26 +615,26 @@
         <v>2000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>2</v>
@@ -624,43 +643,74 @@
         <v>2000</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="n">
+        <v>70</v>
+      </c>
       <c r="C12" s="2" t="n">
-        <f aca="false">SUM(C2:C11)</f>
-        <v>22000</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">№ п/п</t>
+  </si>
   <si>
     <t xml:space="preserve">Собственник</t>
   </si>
@@ -83,6 +86,33 @@
   </si>
   <si>
     <t xml:space="preserve">Кругловы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соколов, Луночкина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ганина Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевелев Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123, 124, 125</t>
   </si>
 </sst>
 </file>
@@ -373,12 +403,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -475,446 +505,593 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
-        <f aca="false">SUM(C2:C50)</f>
-        <v>32000</v>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <f aca="false">SUM(D2:D50)</f>
+        <v>54000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
   <si>
-    <t xml:space="preserve">Собственник</t>
-  </si>
-  <si>
     <t xml:space="preserve">Участок</t>
   </si>
   <si>
@@ -40,76 +37,28 @@
     <t xml:space="preserve">ИТОГО</t>
   </si>
   <si>
-    <t xml:space="preserve">Агеев Владимир Валентинович</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.07.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Мочалин Алексей</t>
-  </si>
-  <si>
     <t xml:space="preserve">17.07.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Сурова Любовь Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артамонов Юрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вячеслав Васильевич В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Золотухин Алексей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роман Косоногов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латышева</t>
-  </si>
-  <si>
     <t xml:space="preserve">38,39</t>
   </si>
   <si>
-    <t xml:space="preserve">Мария Алексеевна Г.</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.07.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Ирина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ильдар У</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кругловы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соколов, Луночкина</t>
-  </si>
-  <si>
     <t xml:space="preserve">45,46</t>
   </si>
   <si>
     <t xml:space="preserve">36,37</t>
   </si>
   <si>
-    <t xml:space="preserve">Ганина Марина</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.07.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Шевелев Сергей</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.07.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александр</t>
   </si>
   <si>
     <t xml:space="preserve">123, 124, 125</t>
@@ -505,17 +454,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,149 +479,124 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <f aca="false">SUM(D2:D50)</f>
-        <v>54000</v>
+      <c r="F1" s="0" t="n">
+        <f aca="false">SUM(C2:C50)</f>
+        <v>56000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="n">
+        <v>41</v>
+      </c>
       <c r="C3" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>2000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="n">
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>2000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="n">
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="B8" s="1" t="n">
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+      <c r="B9" s="1" t="n">
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,417 +604,366 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="n">
+        <v>70</v>
+      </c>
       <c r="C12" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
+      <c r="B13" s="1" t="n">
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>2000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="n">
+        <v>109</v>
+      </c>
       <c r="C14" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>2000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
+      <c r="B15" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>2000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
+      <c r="B16" s="1" t="n">
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>2000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
+      <c r="B17" s="1" t="n">
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>2000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
+      <c r="B20" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>2000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
+      <c r="B21" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>2000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
+      <c r="B22" s="1" t="n">
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>2000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>6000</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">123, 124, 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.07.2021</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,7 +487,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>56000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,16 +813,32 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>60000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,16 +841,32 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>64000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,16 +869,32 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">19.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.07.2021</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +490,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>68000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,16 +900,32 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">20.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.07.2021</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +493,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>72000</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,58 +931,130 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">21.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.07.2021</t>
   </si>
 </sst>
 </file>
@@ -465,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,7 +496,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>92000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,28 +1060,60 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -468,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="F1" s="0" t="n">
         <f aca="false">SUM(C2:C50)</f>
-        <v>100000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1116,18 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>

--- a/Сбор 17_07_2021.xlsx
+++ b/Сбор 17_07_2021.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Покос_2021" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Снег_2021" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -34,13 +35,16 @@
     <t xml:space="preserve">Дата</t>
   </si>
   <si>
-    <t xml:space="preserve">ИТОГО</t>
+    <t xml:space="preserve">ИТОГО собрано</t>
   </si>
   <si>
     <t xml:space="preserve">17.07.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.07.2020</t>
+    <t xml:space="preserve">Оплачено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Остаток</t>
   </si>
   <si>
     <t xml:space="preserve">38,39</t>
@@ -55,12 +59,6 @@
     <t xml:space="preserve">36,37</t>
   </si>
   <si>
-    <t xml:space="preserve">18.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.07.2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">123, 124, 125</t>
   </si>
   <si>
@@ -74,14 +72,36 @@
   </si>
   <si>
     <t xml:space="preserve">22.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого собрано</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата уборки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущий остаток средств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого с учетом остатка прошлого периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123,124,125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -359,7 +379,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,31 +392,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 17" xfId="20"/>
-    <cellStyle name="Accent 16" xfId="21"/>
-    <cellStyle name="Accent 2 18" xfId="22"/>
-    <cellStyle name="Accent 3 19" xfId="23"/>
-    <cellStyle name="Bad 13" xfId="24"/>
-    <cellStyle name="Error 15" xfId="25"/>
-    <cellStyle name="Footnote 8" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading 1 4" xfId="28"/>
-    <cellStyle name="Heading 2 5" xfId="29"/>
-    <cellStyle name="Heading 3" xfId="30"/>
-    <cellStyle name="Hyperlink 9" xfId="31"/>
-    <cellStyle name="Neutral 12" xfId="32"/>
-    <cellStyle name="Note 7" xfId="33"/>
-    <cellStyle name="Status 10" xfId="34"/>
-    <cellStyle name="Text 6" xfId="35"/>
-    <cellStyle name="Warning 14" xfId="36"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Accent 1 17" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 16" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2 18" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3 19" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad 13" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error 15" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote 8" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good 11" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1 4" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2 5" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink 9" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral 12" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note 7" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status 10" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text 6" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning 14" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -468,14 +516,16 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,10 +541,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="3" t="n">
         <f aca="false">SUM(C2:C50)</f>
         <v>102000</v>
       </c>
@@ -512,6 +562,12 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>43000</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -526,6 +582,13 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <f aca="false">F1-F2</f>
+        <v>59000</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -538,7 +601,7 @@
         <v>2000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +629,7 @@
         <v>2000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>4000</v>
@@ -650,7 +713,7 @@
         <v>2000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +741,7 @@
         <v>2000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,7 +755,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,7 +769,7 @@
         <v>2000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +783,7 @@
         <v>2000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,13 +791,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>4000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,13 +805,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>4000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +825,7 @@
         <v>2000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +839,7 @@
         <v>2000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +853,7 @@
         <v>2000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,13 +861,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>6000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,7 +881,7 @@
         <v>2000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +895,7 @@
         <v>2000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +909,7 @@
         <v>2000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,7 +923,7 @@
         <v>2000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,7 +937,7 @@
         <v>2000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,7 +951,7 @@
         <v>2000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +965,7 @@
         <v>2000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +979,7 @@
         <v>2000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,7 +993,7 @@
         <v>2000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +1007,7 @@
         <v>2000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,7 +1021,7 @@
         <v>2000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +1035,7 @@
         <v>2000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +1049,7 @@
         <v>2000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,7 +1063,7 @@
         <v>2000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,7 +1077,7 @@
         <v>2000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1091,7 @@
         <v>2000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,7 +1105,7 @@
         <v>4000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,7 +1119,7 @@
         <v>2000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,7 +1133,7 @@
         <v>2000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,7 +1147,7 @@
         <v>2000</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,7 +1161,7 @@
         <v>2000</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,7 +1175,7 @@
         <v>2000</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,7 +1189,7 @@
         <v>2000</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,4 +1225,308 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="13.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>42000</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <f aca="false">F2-SUM(J:J)</f>
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>44522</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <f aca="false">F1+Покос_2021!F3</f>
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>44522</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>